--- a/build/classes/resources/SistemasAgua.xlsx
+++ b/build/classes/resources/SistemasAgua.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="506">
   <si>
     <t xml:space="preserve">Nombre</t>
   </si>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">4 5 6</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">Rubén Darío</t>
@@ -1134,9 +1134,6 @@
   </si>
   <si>
     <t xml:space="preserve">95485212315484010000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">Bernardo</t>
@@ -1679,7 +1676,7 @@
   <dimension ref="A1:Q152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="topLeft" activeCell="R12" activeCellId="0" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5041,21 +5038,21 @@
         <v>45627</v>
       </c>
       <c r="Q86" s="3" t="s">
-        <v>371</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>19</v>
       </c>
       <c r="C87" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>369</v>
@@ -5067,7 +5064,7 @@
         <v>93</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K87" s="0" t="s">
         <v>25</v>
@@ -5085,21 +5082,21 @@
         <v>39308</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>371</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>102</v>
       </c>
       <c r="C88" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>249</v>
@@ -5111,7 +5108,7 @@
         <v>33</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K88" s="0" t="s">
         <v>25</v>
@@ -5129,21 +5126,21 @@
         <v>40028</v>
       </c>
       <c r="Q88" s="3" t="s">
-        <v>371</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="B89" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="C89" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="D89" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>249</v>
@@ -5155,7 +5152,7 @@
         <v>33</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K89" s="0" t="s">
         <v>25</v>
@@ -5173,7 +5170,7 @@
         <v>39734</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>371</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5181,22 +5178,22 @@
         <v>246</v>
       </c>
       <c r="B90" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E90" s="6" t="s">
+      <c r="F90" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>387</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>113</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K90" s="0" t="s">
         <v>25</v>
@@ -5214,33 +5211,33 @@
         <v>40418</v>
       </c>
       <c r="Q90" s="3" t="s">
-        <v>371</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>201</v>
       </c>
       <c r="C91" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="E91" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>142</v>
       </c>
       <c r="G91" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H91" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="K91" s="0" t="s">
         <v>25</v>
@@ -5258,33 +5255,33 @@
         <v>39480</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>371</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>237</v>
       </c>
       <c r="C92" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="E92" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="F92" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K92" s="0" t="s">
         <v>25</v>
@@ -5302,33 +5299,33 @@
         <v>39939</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>371</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="C93" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="D93" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>349</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K93" s="0" t="s">
         <v>25</v>
@@ -5346,12 +5343,12 @@
         <v>41007</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>371</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>136</v>
@@ -5361,16 +5358,16 @@
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>123</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K94" s="0" t="s">
         <v>25</v>
@@ -5388,12 +5385,12 @@
         <v>41247</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>371</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>136</v>
@@ -5402,19 +5399,19 @@
         <v>90</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="F95" s="4" t="s">
         <v>413</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>414</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K95" s="0" t="s">
         <v>25</v>
@@ -5432,7 +5429,7 @@
         <v>45099</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>371</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,25 +5473,25 @@
         <v>321</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C102" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="D102" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>117</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>123</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K102" s="0" t="s">
         <v>25</v>
@@ -5512,7 +5509,7 @@
         <v>40726</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,13 +5520,13 @@
         <v>201</v>
       </c>
       <c r="C103" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="D103" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="E103" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>53</v>
@@ -5538,7 +5535,7 @@
         <v>128</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K103" s="0" t="s">
         <v>25</v>
@@ -5556,7 +5553,7 @@
         <v>44937</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5567,22 +5564,22 @@
         <v>237</v>
       </c>
       <c r="C104" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="E104" s="6" t="s">
         <v>427</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G104" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="H104" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="K104" s="0" t="s">
         <v>25</v>
@@ -5600,7 +5597,7 @@
         <v>40195</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,16 +5605,16 @@
         <v>333</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>57</v>
       </c>
       <c r="D105" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E105" s="6" t="s">
         <v>431</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>432</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>271</v>
@@ -5626,7 +5623,7 @@
         <v>33</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K105" s="0" t="s">
         <v>25</v>
@@ -5644,7 +5641,7 @@
         <v>40974</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5658,19 +5655,19 @@
         <v>18</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>271</v>
       </c>
       <c r="G106" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="H106" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="K106" s="0" t="s">
         <v>25</v>
@@ -5688,7 +5685,7 @@
         <v>44615</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5813,28 +5810,28 @@
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>315</v>
       </c>
       <c r="C127" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E127" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D127" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E127" s="6" t="s">
+      <c r="F127" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="G127" s="0" t="s">
         <v>23</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K127" s="0" t="s">
         <v>25</v>
@@ -5852,33 +5849,33 @@
         <v>39738</v>
       </c>
       <c r="Q127" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>318</v>
       </c>
       <c r="C128" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="E128" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="E128" s="6" t="s">
+      <c r="F128" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="G128" s="0" t="s">
         <v>93</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K128" s="0" t="s">
         <v>25</v>
@@ -5896,33 +5893,33 @@
         <v>40453</v>
       </c>
       <c r="Q128" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>322</v>
       </c>
       <c r="C129" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="D129" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="E129" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="G129" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K129" s="0" t="s">
         <v>25</v>
@@ -5940,24 +5937,24 @@
         <v>43473</v>
       </c>
       <c r="Q129" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>76</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F130" s="4" t="s">
         <v>67</v>
@@ -5966,7 +5963,7 @@
         <v>33</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K130" s="0" t="s">
         <v>25</v>
@@ -5984,33 +5981,33 @@
         <v>40935</v>
       </c>
       <c r="Q130" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>329</v>
       </c>
       <c r="C131" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="E131" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="G131" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K131" s="0" t="s">
         <v>25</v>
@@ -6028,7 +6025,7 @@
         <v>44175</v>
       </c>
       <c r="Q131" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6039,22 +6036,22 @@
         <v>334</v>
       </c>
       <c r="C132" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>461</v>
-      </c>
       <c r="E132" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G132" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K132" s="0" t="s">
         <v>25</v>
@@ -6072,33 +6069,33 @@
         <v>40887</v>
       </c>
       <c r="Q132" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>237</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D133" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E133" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="E133" s="6" t="s">
-        <v>464</v>
-      </c>
       <c r="F133" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G133" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K133" s="0" t="s">
         <v>25</v>
@@ -6116,33 +6113,33 @@
         <v>43334</v>
       </c>
       <c r="Q133" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>339</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D134" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E134" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="E134" s="6" t="s">
+      <c r="F134" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>468</v>
       </c>
       <c r="G134" s="0" t="s">
         <v>33</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K134" s="0" t="s">
         <v>25</v>
@@ -6160,31 +6157,31 @@
         <v>42557</v>
       </c>
       <c r="Q134" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>102</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G135" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="H135" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="H135" s="5" t="s">
-        <v>471</v>
       </c>
       <c r="K135" s="0" t="s">
         <v>25</v>
@@ -6202,12 +6199,12 @@
         <v>43929</v>
       </c>
       <c r="Q135" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>85</v>
@@ -6216,10 +6213,10 @@
         <v>57</v>
       </c>
       <c r="D136" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E136" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>104</v>
@@ -6228,7 +6225,7 @@
         <v>123</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K136" s="0" t="s">
         <v>25</v>
@@ -6246,7 +6243,7 @@
         <v>40457</v>
       </c>
       <c r="Q136" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6330,7 +6327,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6344,63 +6341,63 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>475</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>477</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>481</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>483</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>486</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>489</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>491</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>492</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>25</v>
@@ -6417,22 +6414,22 @@
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>489</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>493</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>494</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>25</v>
@@ -6449,22 +6446,22 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>489</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>495</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>496</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>25</v>
@@ -6481,22 +6478,22 @@
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>489</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>497</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>498</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>25</v>
@@ -6513,22 +6510,22 @@
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>489</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>499</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>491</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>500</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>12</v>
@@ -6542,22 +6539,22 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>488</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>489</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>500</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>501</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>501</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>502</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>10</v>
@@ -6571,22 +6568,22 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>491</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>492</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>25</v>
@@ -6603,22 +6600,22 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E9" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>493</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>494</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>25</v>
@@ -6635,22 +6632,22 @@
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>25</v>
@@ -6661,25 +6658,25 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>505</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>506</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>20</v>
